--- a/drag_buildup/derivatives/DragBuildUp.xlsx
+++ b/drag_buildup/derivatives/DragBuildUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravo_4e3\OneDrive\Desktop\Cal Poly\AERO 444 - Aircraft Design II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD175B4A-4C43-4BED-B453-8D331DA419A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97665D10-3E1E-44D4-8BA9-1F29DB9036AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Input Equations" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
   <si>
     <t>S</t>
   </si>
@@ -83,9 +84,6 @@
     <t>ft</t>
   </si>
   <si>
-    <t>Plane Geometry</t>
-  </si>
-  <si>
     <t>MAC</t>
   </si>
   <si>
@@ -95,9 +93,6 @@
     <t>Chord tip length</t>
   </si>
   <si>
-    <t>Plane Section Geometry</t>
-  </si>
-  <si>
     <t>lf</t>
   </si>
   <si>
@@ -134,9 +129,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Tail Section Geometry</t>
-  </si>
-  <si>
     <t>S_aileron</t>
   </si>
   <si>
@@ -182,9 +174,6 @@
     <t>area of elevator</t>
   </si>
   <si>
-    <t>area of rudder</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assume no taper mean aerodynamic chord </t>
   </si>
   <si>
@@ -198,13 +187,133 @@
   </si>
   <si>
     <t>t_tail</t>
+  </si>
+  <si>
+    <t>Aspect Ratio</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Plane Wing Geometry</t>
+  </si>
+  <si>
+    <t>sweep angle at 1/4c</t>
+  </si>
+  <si>
+    <t>sweep angle at 1/2c</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>Lambda_quarter</t>
+  </si>
+  <si>
+    <t>Lambda_half</t>
+  </si>
+  <si>
+    <t>Sweep angle at TE</t>
+  </si>
+  <si>
+    <t>sweep angle at LE</t>
+  </si>
+  <si>
+    <t>Lambda_te</t>
+  </si>
+  <si>
+    <t>root thickness tail</t>
+  </si>
+  <si>
+    <t>tip thickness tail</t>
+  </si>
+  <si>
+    <t>Fuselage Section Geometry</t>
+  </si>
+  <si>
+    <t>Area of rudder</t>
+  </si>
+  <si>
+    <t>b_tail</t>
+  </si>
+  <si>
+    <t>Lambda_Tail_half</t>
+  </si>
+  <si>
+    <t>Sweep angle of tail</t>
+  </si>
+  <si>
+    <t>t_Tail_root</t>
+  </si>
+  <si>
+    <t>t_Tail_tip</t>
+  </si>
+  <si>
+    <t>C_Tail_root</t>
+  </si>
+  <si>
+    <t>C_Tail_tip</t>
+  </si>
+  <si>
+    <t>C_Vert_tip</t>
+  </si>
+  <si>
+    <t>C_Vert_root</t>
+  </si>
+  <si>
+    <t>t_Vert_tip</t>
+  </si>
+  <si>
+    <t>cbar_Vert</t>
+  </si>
+  <si>
+    <t>cbarbar_Vert</t>
+  </si>
+  <si>
+    <t>area of vert stab</t>
+  </si>
+  <si>
+    <t>S_Vert</t>
+  </si>
+  <si>
+    <t>Area of Horiz stab</t>
+  </si>
+  <si>
+    <t>S_Tail</t>
+  </si>
+  <si>
+    <t>t_Vert_root</t>
+  </si>
+  <si>
+    <t>b_Vert</t>
+  </si>
+  <si>
+    <t>Sweep angle of LE tail</t>
+  </si>
+  <si>
+    <t>Sweep angle of TE tail</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>Vertical Tail Section Geometry</t>
+  </si>
+  <si>
+    <t>Horizontal Tail Section Geometry</t>
+  </si>
+  <si>
+    <t>Lambda_Vert_half</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +340,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -331,6 +446,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,7 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5E94DD-475C-4C1A-B69B-A897EE12FF00}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -699,12 +816,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
@@ -714,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -762,10 +879,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>17.232500000000002</v>
@@ -773,12 +890,12 @@
     </row>
     <row r="10" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
@@ -788,13 +905,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -808,7 +925,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -822,7 +939,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -836,10 +953,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <f>((2/3)*( (C13+C14-( (C13*C14)/(C13+C14) ))/(1+(C14/C13)) ) + C15)/2</f>
@@ -849,12 +966,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>52</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="1">
         <f>0.18*C13</f>
@@ -864,12 +981,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>53</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="1">
         <f>0.15*C14</f>
@@ -879,244 +996,587 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1">
+        <f>((C7*2)^2)/C4</f>
+        <v>6.2517696052631591</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
+      <c r="C30">
+        <v>7.3025000000000002</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B31" t="s">
         <v>20</v>
       </c>
-      <c r="C21">
-        <v>20.329999999999998</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21">
-        <v>23018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
+      <c r="C31">
+        <v>13.2958</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
-        <v>7.3025000000000002</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22">
-        <v>23015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
+      <c r="C32">
+        <v>14.1866</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>13.2958</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
+      <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>14.1866</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
+      <c r="C33">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D33" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25">
-        <v>8.7759999999999998</v>
-      </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="C34" s="1">
         <f>0.25*0.225*C4</f>
         <v>10.6875</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
         <f>0.225*C16</f>
         <v>1.0471377093678984</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36">
         <f>0.225*C16</f>
         <v>1.0471377093678984</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2" t="s">
+    <row r="38" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33">
-        <v>22.93844</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34">
+      <c r="C40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41">
+        <f>65.6/12</f>
+        <v>5.4666666666666659</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42">
+        <f>31/12</f>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43">
         <f>38.39/12 *0.25</f>
         <v>0.79979166666666668</v>
       </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <f>C34</f>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44">
+        <f>C43</f>
         <v>0.79979166666666668</v>
       </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36">
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46">
         <v>19.692029999999999</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47">
         <f>48.58/12 *0.25</f>
         <v>1.0120833333333332</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" t="s">
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <f>C47</f>
+        <v>1.0120833333333332</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <f>59.18/12</f>
+        <v>4.9316666666666666</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A57" t="s">
         <v>16</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57">
+        <f>49.55/12</f>
+        <v>4.1291666666666664</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <f>24.28/12</f>
+        <v>2.0233333333333334</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59">
+        <v>20.446000000000002</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A60" t="s">
         <v>43</v>
       </c>
-      <c r="C38">
-        <f>C37</f>
-        <v>1.0120833333333332</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A61" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62">
+        <v>22.93844</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65">
+        <f>0.15*C57</f>
+        <v>0.6193749999999999</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66">
+        <f>0.15*C58</f>
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67">
+        <f>152.9/12</f>
+        <v>12.741666666666667</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D69" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/drag_buildup/derivatives/DragBuildUp.xlsx
+++ b/drag_buildup/derivatives/DragBuildUp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravo_4e3\OneDrive\Desktop\Cal Poly\AERO 444 - Aircraft Design II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravo_4e3\OneDrive\Documents\GitHub\443_design_problem\drag_buildup\derivatives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97665D10-3E1E-44D4-8BA9-1F29DB9036AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D32C7-B1CA-4233-8DBD-B764EB1141CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Input Equations" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
   <si>
     <t>S</t>
   </si>
@@ -307,6 +306,72 @@
   </si>
   <si>
     <t>Lambda_Vert_half</t>
+  </si>
+  <si>
+    <t>h_H</t>
+  </si>
+  <si>
+    <t>vertical distance between wing mac and tail mac</t>
+  </si>
+  <si>
+    <t>length of nose</t>
+  </si>
+  <si>
+    <t>length of cylindrical portion</t>
+  </si>
+  <si>
+    <t>length of tail</t>
+  </si>
+  <si>
+    <t>S_C_wet</t>
+  </si>
+  <si>
+    <t>wetted area of tail</t>
+  </si>
+  <si>
+    <t>wetted area of center area</t>
+  </si>
+  <si>
+    <t>wetted area of nose area</t>
+  </si>
+  <si>
+    <t>wing m.a.c to horizontal tail m.a.c [ft]</t>
+  </si>
+  <si>
+    <t>l_H</t>
+  </si>
+  <si>
+    <t>epsilon_0</t>
+  </si>
+  <si>
+    <t>Aerodynamic twist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tail incidence </t>
+  </si>
+  <si>
+    <t>Uncatagorized</t>
+  </si>
+  <si>
+    <t>S_B_wet</t>
+  </si>
+  <si>
+    <t>S_A_wet</t>
+  </si>
+  <si>
+    <t>i_T</t>
+  </si>
+  <si>
+    <t>V_Max</t>
+  </si>
+  <si>
+    <t>Min speed</t>
+  </si>
+  <si>
+    <t>Max speed</t>
+  </si>
+  <si>
+    <t>V_Min</t>
   </si>
 </sst>
 </file>
@@ -449,6 +514,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,15 +530,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -801,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5E94DD-475C-4C1A-B69B-A897EE12FF00}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -816,12 +881,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
@@ -865,102 +930,104 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C6">
-        <v>25000</v>
+        <v>329</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>25000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C7">
-        <v>17.232500000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="11" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11" t="s">
+      <c r="C9">
+        <v>35.35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>7.4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>3.5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>5.45</v>
+        <v>7.4</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1">
-        <f>((2/3)*( (C13+C14-( (C13*C14)/(C13+C14) ))/(1+(C14/C13)) ) + C15)/2</f>
-        <v>4.653945374968437</v>
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -968,29 +1035,28 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1">
-        <f>0.18*C13</f>
-        <v>1.3320000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5.45</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="1">
-        <f>0.15*C14</f>
-        <v>0.52500000000000002</v>
+        <f>((2/3)*( (C15+C16-( (C15*C16)/(C15+C16) ))/(1+(C16/C15)) ) + C17)/2</f>
+        <v>4.653945374968437</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -998,53 +1064,55 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1">
-        <f>((C7*2)^2)/C4</f>
-        <v>6.2517696052631591</v>
+        <f>0.18*C15</f>
+        <v>1.3320000000000001</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20">
-        <v>8.7759999999999998</v>
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1">
+        <f>0.15*C16</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21">
-        <v>8.7759999999999998</v>
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1">
+        <f>((C9*2)^2)/C4</f>
+        <v>26.307842105263163</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>8.7759999999999998</v>
@@ -1055,10 +1123,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>8.7759999999999998</v>
@@ -1068,71 +1136,71 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>20.329999999999998</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>7.3025000000000002</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>13.2958</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -1140,13 +1208,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>14.1866</v>
+        <v>7.3025000000000002</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -1154,429 +1222,628 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>13.2958</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>14.1866</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>8.7759999999999998</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C36" s="1">
         <f>0.25*0.225*C4</f>
         <v>10.6875</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C35">
-        <f>0.225*C16</f>
+      <c r="C37">
+        <f>0.225*C18</f>
         <v>1.0471377093678984</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="C36">
-        <f>0.225*C16</f>
+      <c r="C38">
+        <f>0.225*C18</f>
         <v>1.0471377093678984</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="39" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="4"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>7.3025000000000002</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>13.2958</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41">
+        <v>101.23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42">
+        <v>27.09</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
         <v>16</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C41">
+      <c r="C48">
         <f>65.6/12</f>
         <v>5.4666666666666659</v>
       </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A42" t="s">
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
         <v>17</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B49" t="s">
         <v>72</v>
       </c>
-      <c r="C42">
+      <c r="C49">
         <f>31/12</f>
         <v>2.5833333333333335</v>
       </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A43" t="s">
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B50" t="s">
         <v>36</v>
       </c>
-      <c r="C43">
+      <c r="C50">
         <f>38.39/12 *0.25</f>
         <v>0.79979166666666668</v>
       </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A44" s="6" t="s">
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A51" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B51" t="s">
         <v>37</v>
       </c>
-      <c r="C44">
-        <f>C43</f>
+      <c r="C51">
+        <f>C50</f>
         <v>0.79979166666666668</v>
       </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A45" s="5" t="s">
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A52" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B52" t="s">
         <v>81</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D52" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A46" s="5" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A53" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B53" t="s">
         <v>38</v>
       </c>
-      <c r="C46">
+      <c r="C53">
         <v>19.692029999999999</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A47" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A54" t="s">
         <v>34</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B54" t="s">
         <v>39</v>
       </c>
-      <c r="C47">
+      <c r="C54">
         <f>48.58/12 *0.25</f>
         <v>1.0120833333333332</v>
       </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A48" t="s">
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A55" t="s">
         <v>15</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B55" t="s">
         <v>40</v>
       </c>
-      <c r="C48">
-        <f>C47</f>
+      <c r="C55">
+        <f>C54</f>
         <v>1.0120833333333332</v>
       </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A49" t="s">
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A56" t="s">
         <v>62</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B56" t="s">
         <v>69</v>
       </c>
-      <c r="C49">
+      <c r="C56">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" t="s">
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A57" t="s">
         <v>63</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B57" t="s">
         <v>70</v>
       </c>
-      <c r="C50">
+      <c r="C57">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A51" t="s">
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A58" t="s">
         <v>41</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B58" t="s">
         <v>66</v>
       </c>
-      <c r="C51">
+      <c r="C58">
         <f>59.18/12</f>
         <v>4.9316666666666666</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A52" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A59" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C52">
+      <c r="C59">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D59" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="55" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="11" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>14.1866</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61">
+        <v>53.73</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-    </row>
-    <row r="56" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2" t="s">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A57" t="s">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A68" t="s">
         <v>16</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="C57">
+      <c r="C68">
         <f>49.55/12</f>
         <v>4.1291666666666664</v>
       </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A58" t="s">
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A69" t="s">
         <v>17</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B69" t="s">
         <v>73</v>
       </c>
-      <c r="C58">
+      <c r="C69">
         <f>24.28/12</f>
         <v>2.0233333333333334</v>
       </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A59" t="s">
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A70" t="s">
         <v>78</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B70" t="s">
         <v>79</v>
       </c>
-      <c r="C59">
+      <c r="C70">
         <v>20.446000000000002</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D70" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A60" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A71" t="s">
         <v>43</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B71" t="s">
         <v>76</v>
       </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A61" s="6" t="s">
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A72" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A62" t="s">
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A73" t="s">
         <v>44</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B73" t="s">
         <v>35</v>
       </c>
-      <c r="C62">
+      <c r="C73">
         <v>22.93844</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A63" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A74" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A64" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A65" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A76" t="s">
         <v>62</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="C65">
-        <f>0.15*C57</f>
+      <c r="C76">
+        <f>0.15*C68</f>
         <v>0.6193749999999999</v>
       </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A66" t="s">
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A77" t="s">
         <v>63</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B77" t="s">
         <v>75</v>
       </c>
-      <c r="C66">
-        <f>0.15*C58</f>
+      <c r="C77">
+        <f>0.15*C69</f>
         <v>0.30349999999999999</v>
       </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A67" t="s">
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A78" t="s">
         <v>41</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B78" t="s">
         <v>83</v>
       </c>
-      <c r="C67">
+      <c r="C78">
         <f>152.9/12</f>
         <v>12.741666666666667</v>
       </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A68" t="s">
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A79" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B79" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C68">
+      <c r="C79">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D79" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A69" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A80" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B80" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C69">
+      <c r="C80">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D80" t="s">
         <v>86</v>
       </c>
     </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>14.59404</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82">
+        <f>31.5/12</f>
+        <v>2.625</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A88:D88"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A66:D66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/drag_buildup/derivatives/DragBuildUp.xlsx
+++ b/drag_buildup/derivatives/DragBuildUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravo_4e3\OneDrive\Documents\GitHub\443_design_problem\drag_buildup\derivatives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D32C7-B1CA-4233-8DBD-B764EB1141CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5E087C-BB21-49F7-88E0-6CE249A339D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="174">
   <si>
     <t>S</t>
   </si>
@@ -278,12 +278,6 @@
     <t>S_Vert</t>
   </si>
   <si>
-    <t>Area of Horiz stab</t>
-  </si>
-  <si>
-    <t>S_Tail</t>
-  </si>
-  <si>
     <t>t_Vert_root</t>
   </si>
   <si>
@@ -372,13 +366,205 @@
   </si>
   <si>
     <t>V_Min</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>Taper Ratio</t>
+  </si>
+  <si>
+    <t>Wing section 1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Wing section 2</t>
+  </si>
+  <si>
+    <t>Wing section 3</t>
+  </si>
+  <si>
+    <t>Wing section 4</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>With Chord Section 1</t>
+  </si>
+  <si>
+    <t>With Chord Section 2</t>
+  </si>
+  <si>
+    <t>With Chord Section 3</t>
+  </si>
+  <si>
+    <t>With Chord Section 4</t>
+  </si>
+  <si>
+    <t>cbarbar2</t>
+  </si>
+  <si>
+    <t>cbarbar3</t>
+  </si>
+  <si>
+    <t>cbarbar4</t>
+  </si>
+  <si>
+    <t>cbarbar1</t>
+  </si>
+  <si>
+    <t>epsilon_i</t>
+  </si>
+  <si>
+    <t>local aerodynamic twist</t>
+  </si>
+  <si>
+    <t>airfoil</t>
+  </si>
+  <si>
+    <t>Airfoil Series</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>ending</t>
+  </si>
+  <si>
+    <t>AOA lower cap</t>
+  </si>
+  <si>
+    <t>AOA upper cap</t>
+  </si>
+  <si>
+    <t>alpha_0W_root</t>
+  </si>
+  <si>
+    <t>iprime_r</t>
+  </si>
+  <si>
+    <t>geometric incidence of the wing at the root</t>
+  </si>
+  <si>
+    <t>zero lift angle of attack, 2D, at the wing root</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>aerodynamic twist of the wing</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>Area of downwash affected</t>
+  </si>
+  <si>
+    <t>NACA 2412</t>
+  </si>
+  <si>
+    <t>C_D0T</t>
+  </si>
+  <si>
+    <t>Values to work on later</t>
+  </si>
+  <si>
+    <t>additional drag from elevator</t>
+  </si>
+  <si>
+    <t>Aspect ratio of tail</t>
+  </si>
+  <si>
+    <t>MTOW</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>A_T</t>
+  </si>
+  <si>
+    <t>Area of Horiz  Tail</t>
+  </si>
+  <si>
+    <t>S_T</t>
+  </si>
+  <si>
+    <t>Span of horizontal tail</t>
+  </si>
+  <si>
+    <t>b_Horiz</t>
+  </si>
+  <si>
+    <t>t_c</t>
+  </si>
+  <si>
+    <t>Horizontal Tail thickness ratio</t>
+  </si>
+  <si>
+    <t>cf_C</t>
+  </si>
+  <si>
+    <t>Elevator chord</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>FlapCHord/WingChord</t>
+  </si>
+  <si>
+    <t>06-Drag</t>
+  </si>
+  <si>
+    <t>S_CAB</t>
+  </si>
+  <si>
+    <t>wetted area of A,B,C</t>
+  </si>
+  <si>
+    <t>Lambda_f</t>
+  </si>
+  <si>
+    <t>fuselage tail incidence angle</t>
+  </si>
+  <si>
+    <t>alpha_0B</t>
+  </si>
+  <si>
+    <t>zero lift angle of fuselage</t>
+  </si>
+  <si>
+    <t>Se_S</t>
+  </si>
+  <si>
+    <t>ratio of wing not covered by the fuselage to the total wing area, estimation from online</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,13 +598,25 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -501,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -532,6 +730,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5E94DD-475C-4C1A-B69B-A897EE12FF00}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -922,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>329</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -930,10 +1130,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>329</v>
@@ -944,10 +1144,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" t="s">
-        <v>111</v>
       </c>
       <c r="C7">
         <v>67</v>
@@ -964,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -984,79 +1184,75 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="13" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11">
+        <v>12430</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>7.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>3.5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>5.45</v>
+        <v>7.4</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1">
-        <f>((2/3)*( (C15+C16-( (C15*C16)/(C15+C16) ))/(1+(C16/C15)) ) + C17)/2</f>
-        <v>4.653945374968437</v>
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3.5</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1064,29 +1260,28 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1">
-        <f>0.18*C15</f>
-        <v>1.3320000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>5.45</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="1">
-        <f>0.15*C16</f>
-        <v>0.52500000000000002</v>
+        <f>((2/3)*( (C17+C18-( (C17*C18)/(C17+C18) ))/(1+(C18/C17)) ) + C19)/2</f>
+        <v>4.653945374968437</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1094,67 +1289,70 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
-        <f>((C9*2)^2)/C4</f>
-        <v>26.307842105263163</v>
+        <f>0.18*C17</f>
+        <v>1.3320000000000001</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>8.7759999999999998</v>
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1">
+        <f>0.15*C18</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23">
-        <v>8.7759999999999998</v>
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1">
+        <f>((C9)^2)/C4</f>
+        <v>6.5769605263157906</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24">
-        <v>8.7759999999999998</v>
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="1">
+        <f>C23</f>
+        <v>6.5769605263157906</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>8.7759999999999998</v>
@@ -1164,85 +1362,132 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="4"/>
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1">
+        <f>C18/C17</f>
+        <v>0.47297297297297297</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="1">
+        <f>(4458.56+4261.83)/144</f>
+        <v>60.558263888888888</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>20.329999999999998</v>
+        <v>115</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="1">
+        <f>(4208.54+4201.02)/144</f>
+        <v>58.399722222222231</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>7.3025000000000002</v>
+        <v>116</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1">
+        <f>(3452.57+3361.84)/144</f>
+        <v>47.322291666666665</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>13.2958</v>
+        <v>117</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1">
+        <f>(2644.87+2548.99)/144</f>
+        <v>36.068472222222219</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34">
-        <v>14.1866</v>
+        <v>121</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="1">
+        <f>88.88/12</f>
+        <v>7.4066666666666663</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -1250,601 +1495,1009 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="1">
+        <f>80.502/12</f>
+        <v>6.7084999999999999</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="1">
+        <f>65.7354/12</f>
+        <v>5.4779499999999999</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="1">
+        <f>50.245/12</f>
+        <v>4.1870833333333328</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="1">
+        <f>C4*(1-(1/C24))</f>
+        <v>161.11127560523278</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B42" s="7"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="7"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>7.3025000000000002</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>13.2958</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>14.1866</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
         <v>26</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B50" t="s">
         <v>27</v>
       </c>
-      <c r="C35">
+      <c r="C50">
         <v>8.7759999999999998</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D50" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B36" s="1" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C51" s="1">
         <f>0.25*0.225*C4</f>
         <v>10.6875</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B37" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B52" t="s">
         <v>31</v>
       </c>
-      <c r="C37">
-        <f>0.225*C18</f>
+      <c r="C52">
+        <f>0.225*C20</f>
         <v>1.0471377093678984</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B38" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B53" t="s">
         <v>32</v>
       </c>
-      <c r="C38">
-        <f>0.225*C18</f>
+      <c r="C53">
+        <f>0.225*C20</f>
         <v>1.0471377093678984</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
         <v>19</v>
       </c>
-      <c r="C39">
+      <c r="C54">
         <v>7.3025000000000002</v>
       </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
         <v>20</v>
       </c>
-      <c r="C40">
+      <c r="C55">
         <v>13.2958</v>
       </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41">
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56">
         <v>101.23</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57">
         <v>27.09</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="46" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58">
+        <f>C57+C56+C79</f>
+        <v>182.04999999999998</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59">
+        <v>6.31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A61" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D61" s="15"/>
+    </row>
+    <row r="63" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A48" t="s">
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A66" t="s">
         <v>16</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B66" t="s">
         <v>71</v>
       </c>
-      <c r="C48">
+      <c r="C66">
         <f>65.6/12</f>
         <v>5.4666666666666659</v>
       </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A49" t="s">
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A67" t="s">
         <v>17</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B67" t="s">
         <v>72</v>
       </c>
-      <c r="C49">
+      <c r="C67">
         <f>31/12</f>
         <v>2.5833333333333335</v>
       </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" t="s">
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68">
+        <v>20.446000000000002</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A69" t="s">
         <v>43</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B69" t="s">
         <v>36</v>
       </c>
-      <c r="C50">
+      <c r="C69">
         <f>38.39/12 *0.25</f>
         <v>0.79979166666666668</v>
       </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A51" s="6" t="s">
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A70" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B70" t="s">
         <v>37</v>
       </c>
-      <c r="C51">
-        <f>C50</f>
+      <c r="C70">
+        <f>C69</f>
         <v>0.79979166666666668</v>
       </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A52" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A71" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71">
+        <v>19.692029999999999</v>
+      </c>
+      <c r="D71" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A53" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53">
-        <v>19.692029999999999</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A54" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A72" t="s">
         <v>34</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B72" t="s">
         <v>39</v>
       </c>
-      <c r="C54">
+      <c r="C72">
         <f>48.58/12 *0.25</f>
         <v>1.0120833333333332</v>
       </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A55" t="s">
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A73" t="s">
         <v>15</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B73" t="s">
         <v>40</v>
       </c>
-      <c r="C55">
-        <f>C54</f>
+      <c r="C73">
+        <f>C72</f>
         <v>1.0120833333333332</v>
       </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A56" t="s">
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A74" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B74" t="s">
         <v>69</v>
       </c>
-      <c r="C56">
+      <c r="C74">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A57" t="s">
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A75" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B75" t="s">
         <v>70</v>
       </c>
-      <c r="C57">
+      <c r="C75">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A58" t="s">
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A76" t="s">
         <v>41</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B76" t="s">
         <v>66</v>
       </c>
-      <c r="C58">
+      <c r="C76">
         <f>59.18/12</f>
         <v>4.9316666666666666</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D76" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A59" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A77" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B77" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C59">
+      <c r="C77">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D77" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A60" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>14.1866</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A79" t="s">
         <v>94</v>
       </c>
-      <c r="B60" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60">
-        <v>14.1866</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A61" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61">
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79">
         <v>53.73</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D79" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="66" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2" t="s">
+    <row r="83" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A68" t="s">
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A86" t="s">
         <v>16</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B86" t="s">
         <v>74</v>
       </c>
-      <c r="C68">
+      <c r="C86">
         <f>49.55/12</f>
         <v>4.1291666666666664</v>
       </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A69" t="s">
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A87" t="s">
         <v>17</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B87" t="s">
         <v>73</v>
       </c>
-      <c r="C69">
+      <c r="C87">
         <f>24.28/12</f>
         <v>2.0233333333333334</v>
       </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A70" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70">
-        <v>20.446000000000002</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A88" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88">
+        <v>41</v>
+      </c>
+      <c r="D88" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A71" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A89" t="s">
         <v>43</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B89" t="s">
         <v>76</v>
       </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A72" s="6" t="s">
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A90" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90">
+        <f>C91/C88</f>
+        <v>0.31097560975609756</v>
+      </c>
+      <c r="D90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A91" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91">
+        <v>12.75</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A92" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B92" t="s">
         <v>77</v>
       </c>
-      <c r="D72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A73" t="s">
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A93" t="s">
         <v>44</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B93" t="s">
         <v>35</v>
       </c>
-      <c r="C73">
+      <c r="C93">
         <v>22.93844</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D93" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A74" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A94" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94">
+        <v>0.15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A95" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D95" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A96" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A97" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A75" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A98" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A76" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A99" t="s">
         <v>62</v>
       </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76">
-        <f>0.15*C68</f>
+      <c r="B99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99">
+        <f>0.15*C86</f>
         <v>0.6193749999999999</v>
       </c>
-      <c r="D76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A77" t="s">
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A100" t="s">
         <v>63</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B100" t="s">
         <v>75</v>
       </c>
-      <c r="C77">
-        <f>0.15*C69</f>
+      <c r="C100">
+        <f>0.15*C87</f>
         <v>0.30349999999999999</v>
       </c>
-      <c r="D77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A78" t="s">
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A101" t="s">
         <v>41</v>
       </c>
-      <c r="B78" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78">
+      <c r="B101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101">
         <f>152.9/12</f>
         <v>12.741666666666667</v>
       </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A79" t="s">
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D102" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="7" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104">
+        <v>14.59404</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A105" t="s">
         <v>89</v>
       </c>
-      <c r="C79">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="D79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="D80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A81" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81">
-        <v>14.59404</v>
-      </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A82" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82">
+      <c r="B105" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105">
         <f>31.5/12</f>
         <v>2.625</v>
       </c>
-      <c r="D82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A83" t="s">
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A106" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A107" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A108" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" t="e">
+        <f>C101/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C83">
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="10"/>
+    </row>
+    <row r="115" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A116" t="s">
+        <v>100</v>
+      </c>
+      <c r="B116" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116">
         <v>0</v>
       </c>
-      <c r="D83" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A84" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A117" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C117">
+        <v>-10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A119" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119">
+        <v>-5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A120" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120">
+        <v>-3</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="10"/>
+    </row>
+    <row r="126" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A127" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="88" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
-    </row>
-    <row r="89" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A90" t="s">
-        <v>102</v>
-      </c>
-      <c r="B90" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A88:D88"/>
+  <mergeCells count="7">
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A114:D114"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A84:D84"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/drag_buildup/derivatives/DragBuildUp.xlsx
+++ b/drag_buildup/derivatives/DragBuildUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravo_4e3\OneDrive\Documents\GitHub\443_design_problem\drag_buildup\derivatives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5E087C-BB21-49F7-88E0-6CE249A339D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AAD48C-E9EB-412A-8EA1-46EF6CC508AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
   </bookViews>
@@ -699,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -712,6 +712,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -730,8 +731,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5E94DD-475C-4C1A-B69B-A897EE12FF00}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1081,12 +1080,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
@@ -1211,12 +1210,12 @@
     </row>
     <row r="14" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="15" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
@@ -1545,7 +1544,7 @@
       <c r="B38" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38">
         <v>0</v>
       </c>
     </row>
@@ -1556,7 +1555,7 @@
       <c r="B39" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" t="s">
         <v>147</v>
       </c>
       <c r="D39" t="s">
@@ -1598,12 +1597,12 @@
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
@@ -1814,25 +1813,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="8">
         <v>0.8</v>
       </c>
-      <c r="D61" s="15"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="63" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="64" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
@@ -2051,12 +2050,12 @@
     </row>
     <row r="83" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="84" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="11"/>
     </row>
     <row r="85" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
@@ -2194,13 +2193,13 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="8">
         <v>0.25</v>
       </c>
       <c r="D95" t="s">
@@ -2369,12 +2368,12 @@
     </row>
     <row r="113" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="114" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="11"/>
     </row>
     <row r="115" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
@@ -2407,7 +2406,7 @@
         <v>133</v>
       </c>
       <c r="C117">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D117" t="s">
         <v>28</v>
@@ -2421,7 +2420,7 @@
         <v>134</v>
       </c>
       <c r="C118">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
         <v>28</v>
@@ -2449,7 +2448,7 @@
         <v>138</v>
       </c>
       <c r="C120">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D120" t="s">
         <v>28</v>
@@ -2457,12 +2456,12 @@
     </row>
     <row r="124" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="125" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="11"/>
     </row>
     <row r="126" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2" t="s">

--- a/drag_buildup/derivatives/DragBuildUp.xlsx
+++ b/drag_buildup/derivatives/DragBuildUp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravo_4e3\OneDrive\Documents\GitHub\443_design_problem\drag_buildup\derivatives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonc/Documents/GitHub/433_design_problem/drag_buildup/derivatives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AAD48C-E9EB-412A-8EA1-46EF6CC508AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0C985B-CECA-FD45-ABFE-1A1C6F3793F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34480" windowHeight="21580" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Equations" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="223">
   <si>
     <t>S</t>
   </si>
@@ -558,13 +558,160 @@
   </si>
   <si>
     <t>ratio of wing not covered by the fuselage to the total wing area, estimation from online</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>cross sectional area of the largest diameter part of the fuselage</t>
+  </si>
+  <si>
+    <t>A_area</t>
+  </si>
+  <si>
+    <t>Diameter of the above area, assumed to be a circle</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>sq ft</t>
+  </si>
+  <si>
+    <t>planform area of the EBR behind point where shedding vortices start appearing</t>
+  </si>
+  <si>
+    <t>S_P_x0</t>
+  </si>
+  <si>
+    <t>slenderness of the fuselage</t>
+  </si>
+  <si>
+    <t>lf_D</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Wing-Body Geometry</t>
+  </si>
+  <si>
+    <t>ratio of max fuse diameter to wing span</t>
+  </si>
+  <si>
+    <t>D_b</t>
+  </si>
+  <si>
+    <t>Wing-Tail Geometry</t>
+  </si>
+  <si>
+    <t>arm factor</t>
+  </si>
+  <si>
+    <t>tail factor</t>
+  </si>
+  <si>
+    <t>armfactor</t>
+  </si>
+  <si>
+    <t>tailfactor</t>
+  </si>
+  <si>
+    <t>General Tail Geometry</t>
+  </si>
+  <si>
+    <t>alpha_V</t>
+  </si>
+  <si>
+    <t>alpha of vertical tail (0 for straight leveled flight)</t>
+  </si>
+  <si>
+    <t>airfoil_tailhorizontal</t>
+  </si>
+  <si>
+    <t>NACA 0012</t>
+  </si>
+  <si>
+    <t>NA (note this does not import properly into matlab</t>
+  </si>
+  <si>
+    <t>Dimensionless note this does not import properly into matlab</t>
+  </si>
+  <si>
+    <t>S1_horizontal</t>
+  </si>
+  <si>
+    <t>S2_horizontal</t>
+  </si>
+  <si>
+    <t>S3_horizontal</t>
+  </si>
+  <si>
+    <t>S4_horizontal</t>
+  </si>
+  <si>
+    <t>cbarbar1_horizontal</t>
+  </si>
+  <si>
+    <t>cbarbar2_horizontal</t>
+  </si>
+  <si>
+    <t>cbarbar3_horizontal</t>
+  </si>
+  <si>
+    <t>cbarbar4_horizontal</t>
+  </si>
+  <si>
+    <t>S1_vertical</t>
+  </si>
+  <si>
+    <t>S2_vertical</t>
+  </si>
+  <si>
+    <t>S3_vertical</t>
+  </si>
+  <si>
+    <t>S4_vertical</t>
+  </si>
+  <si>
+    <t>cbarbar1_vertical</t>
+  </si>
+  <si>
+    <t>cbarbar2_vertical</t>
+  </si>
+  <si>
+    <t>cbarbar3_vertical</t>
+  </si>
+  <si>
+    <t>cbarbar4_vertical</t>
+  </si>
+  <si>
+    <t>epsilon_i_vertical</t>
+  </si>
+  <si>
+    <t>radians</t>
+  </si>
+  <si>
+    <t>airfoil_vertical</t>
+  </si>
+  <si>
+    <t>effective area of vertical tail</t>
+  </si>
+  <si>
+    <t>effective area of the horizontal tail</t>
+  </si>
+  <si>
+    <t>STe_V</t>
+  </si>
+  <si>
+    <t>STe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,8 +751,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,8 +771,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -695,41 +854,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,1436 +1303,1977 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5E94DD-475C-4C1A-B69B-A897EE12FF00}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+      <c r="D3" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>190</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1">
+        <v>224</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>120</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>329</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>67</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>200</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>35.35</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>12430</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="15" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="9" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="C16" s="1">
         <v>7.4</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C17" s="1">
         <v>3.5</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="C18" s="1">
         <v>5.45</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5">
+        <f>((2/3)*( (C16+C17-( (C16*C17)/(C16+C17) ))/(1+(C17/C16)) ) + C18)/2</f>
+        <v>4.653945374968437</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="1">
-        <f>((2/3)*( (C17+C18-( (C17*C18)/(C17+C18) ))/(1+(C18/C17)) ) + C19)/2</f>
-        <v>4.653945374968437</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="1">
-        <f>0.18*C17</f>
+      <c r="C20" s="5">
+        <f>0.18*C16</f>
         <v>1.3320000000000001</v>
       </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="1">
-        <f>0.15*C18</f>
+      <c r="C21" s="5">
+        <f>0.15*C17</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C22" s="5">
         <f>((C9)^2)/C4</f>
-        <v>6.5769605263157906</v>
-      </c>
-      <c r="D23" t="s">
+        <v>5.5786718750000004</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B23" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="C23" s="5">
+        <f>C22</f>
+        <v>5.5786718750000004</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C24" s="1">
-        <f>C23</f>
-        <v>6.5769605263157906</v>
-      </c>
-      <c r="D24" t="s">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="5">
+        <f>C17/C16</f>
+        <v>0.47297297297297297</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>8.7759999999999998</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26">
-        <v>8.7759999999999998</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27">
-        <v>8.7759999999999998</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28">
-        <v>8.7759999999999998</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="1">
-        <f>C18/C17</f>
-        <v>0.47297297297297297</v>
-      </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C29" s="5">
         <f>(4458.56+4261.83)/144</f>
         <v>60.558263888888888</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C30" s="5">
         <f>(4208.54+4201.02)/144</f>
         <v>58.399722222222231</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" t="s">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C31" s="5">
         <f>(3452.57+3361.84)/144</f>
         <v>47.322291666666665</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" t="s">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C32" s="5">
         <f>(2644.87+2548.99)/144</f>
         <v>36.068472222222219</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" t="s">
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C33" s="5">
         <f>88.88/12</f>
         <v>7.4066666666666663</v>
       </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" t="s">
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C34" s="5">
         <f>80.502/12</f>
         <v>6.7084999999999999</v>
       </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" t="s">
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C35" s="5">
         <f>65.7354/12</f>
         <v>5.4779499999999999</v>
       </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" t="s">
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C36" s="5">
         <f>50.245/12</f>
         <v>4.1870833333333328</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" t="s">
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C38">
+      <c r="C37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A39" t="s">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A40" t="s">
+      <c r="D38" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A41" t="s">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="1">
-        <f>C4*(1-(1/C24))</f>
-        <v>161.11127560523278</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C40" s="5">
+        <f>C4*0.9</f>
+        <v>201.6</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B42" s="7"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="7"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="9" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7.3025000000000002</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <v>13.2958</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="1">
+        <v>14.1866</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="1">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="5">
+        <f>0.25*0.225*C4</f>
+        <v>12.6</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="1">
+        <f>0.225*C19</f>
+        <v>1.0471377093678984</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="1">
+        <f>0.225*C19</f>
+        <v>1.0471377093678984</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="1">
+        <v>7.3025000000000002</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1">
+        <v>13.2958</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1">
+        <v>101.23</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="1">
+        <v>27.09</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="1">
+        <f>C55+C54+C92</f>
+        <v>182.04999999999998</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6.31</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="1">
+        <f>2786.86 / 144</f>
+        <v>19.353194444444444</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="1">
+        <f>SQRT(4*C60/3.14159265)</f>
+        <v>4.9639956196366919</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="1">
+        <f>3158.78/144</f>
+        <v>21.935972222222222</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="1">
+        <f>C44/C61</f>
+        <v>4.0954911240409038</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B65" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C65" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46">
-        <v>20.329999999999998</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47">
-        <v>7.3025000000000002</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48">
-        <v>13.2958</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49">
-        <v>14.1866</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50">
-        <v>8.7759999999999998</v>
-      </c>
-      <c r="D50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="1">
-        <f>0.25*0.225*C4</f>
-        <v>10.6875</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52">
-        <f>0.225*C20</f>
-        <v>1.0471377093678984</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53">
-        <f>0.225*C20</f>
-        <v>1.0471377093678984</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54">
-        <v>7.3025000000000002</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55">
-        <v>13.2958</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56">
-        <v>101.23</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57">
-        <v>27.09</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A58" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58">
-        <f>C57+C56+C79</f>
-        <v>182.04999999999998</v>
-      </c>
-      <c r="D58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A59" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59">
-        <v>6.31</v>
-      </c>
-      <c r="D59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A60" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A61" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="63" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="64" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="9" t="s">
+      <c r="D65" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="1">
+        <f>C61/C9</f>
+        <v>0.140424204233004</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+    </row>
+    <row r="69" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="1">
+        <f>2*C124/C9</f>
+        <v>0.82568826025459685</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="1">
+        <f>ABS(2*C125/C9)</f>
+        <v>0.14851485148514851</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="26"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A66" t="s">
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26"/>
+    </row>
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B79" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C66">
+      <c r="C79" s="1">
         <f>65.6/12</f>
         <v>5.4666666666666659</v>
       </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A67" t="s">
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B80" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C67">
+      <c r="C80" s="1">
         <f>31/12</f>
         <v>2.5833333333333335</v>
       </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A68" t="s">
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C68">
+      <c r="C81" s="1">
         <v>20.446000000000002</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D81" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A69" t="s">
+    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B82" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C69">
+      <c r="C82" s="1">
         <f>38.39/12 *0.25</f>
         <v>0.79979166666666668</v>
       </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A70" s="6" t="s">
+      <c r="D82" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B83" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C70">
-        <f>C69</f>
+      <c r="C83" s="1">
+        <f>C82</f>
         <v>0.79979166666666668</v>
       </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A71" s="5" t="s">
+      <c r="D83" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B84" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C71">
+      <c r="C84" s="1">
         <v>19.692029999999999</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D84" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A72" t="s">
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B85" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C72">
+      <c r="C85" s="1">
         <f>48.58/12 *0.25</f>
         <v>1.0120833333333332</v>
       </c>
-      <c r="D72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A73" t="s">
+      <c r="D85" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B86" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C73">
-        <f>C72</f>
+      <c r="C86" s="1">
+        <f>C85</f>
         <v>1.0120833333333332</v>
       </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A74" t="s">
+      <c r="D86" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B87" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C74">
+      <c r="C87" s="1">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A75" t="s">
+      <c r="D87" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B88" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C75">
+      <c r="C88" s="1">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A76" t="s">
+      <c r="D88" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B89" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C76">
+      <c r="C89" s="1">
         <f>59.18/12</f>
         <v>4.9316666666666666</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D89" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A77" t="s">
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C77">
+      <c r="C90" s="1">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D90" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A78" t="s">
+    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B91" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C78">
+      <c r="C91" s="1">
         <v>14.1866</v>
       </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A79" t="s">
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B92" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C79">
+      <c r="C92" s="1">
         <v>53.73</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D92" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="84" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="9" t="s">
+    <row r="93" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="17">
+        <f>906.56/144</f>
+        <v>6.2955555555555556</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" s="17">
+        <f>778.59/144</f>
+        <v>5.4068750000000003</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" s="17">
+        <f>650.61/144</f>
+        <v>4.5181250000000004</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="17">
+        <f>522.63/144</f>
+        <v>3.629375</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" s="17">
+        <f>61.11/12</f>
+        <v>5.0925000000000002</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="17">
+        <f>52.76/12</f>
+        <v>4.3966666666666665</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="17">
+        <f>44.01/12</f>
+        <v>3.6675</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="17">
+        <f>35.18/12</f>
+        <v>2.9316666666666666</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="1">
+        <f>0.8*C81</f>
+        <v>16.356800000000003</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="11"/>
-    </row>
-    <row r="85" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A86" t="s">
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="20"/>
+    </row>
+    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B106" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C86">
+      <c r="C106" s="1">
         <f>49.55/12</f>
         <v>4.1291666666666664</v>
       </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A87" t="s">
+      <c r="D106" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B107" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C87">
+      <c r="C107" s="1">
         <f>24.28/12</f>
         <v>2.0233333333333334</v>
       </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A88" s="5" t="s">
+      <c r="D107" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B108" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C88">
+      <c r="C108" s="1">
         <v>41</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D108" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A89" t="s">
+    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B109" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A90" t="s">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B110" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C90">
-        <f>C91/C88</f>
+      <c r="C110" s="1">
+        <f>C111/C108</f>
         <v>0.31097560975609756</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D110" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A91" t="s">
+    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B111" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C91">
+      <c r="C111" s="1">
         <v>12.75</v>
       </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A92" s="6" t="s">
+      <c r="D111" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B112" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A93" t="s">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B113" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C93">
+      <c r="C113" s="1">
         <v>22.93844</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D113" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A94" t="s">
+    <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B114" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C94">
+      <c r="C114" s="1">
         <v>0.15</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D114" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A95" s="8" t="s">
+    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C115" s="7">
         <v>0.25</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D115" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A96" t="s">
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B116" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A97" t="s">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A98" t="s">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A99" t="s">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B119" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C99">
-        <f>0.15*C86</f>
+      <c r="C119" s="1">
+        <f>0.15*C106</f>
         <v>0.6193749999999999</v>
       </c>
-      <c r="D99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A100" t="s">
+      <c r="D119" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B120" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C100">
-        <f>0.15*C87</f>
+      <c r="C120" s="1">
+        <f>0.15*C107</f>
         <v>0.30349999999999999</v>
       </c>
-      <c r="D100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A101" t="s">
+      <c r="D120" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B121" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C101">
+      <c r="C121" s="1">
         <f>152.9/12</f>
         <v>12.741666666666667</v>
       </c>
-      <c r="D101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A102" t="s">
+      <c r="D121" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C102">
+      <c r="C122" s="1">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D122" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A103" t="s">
+    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B123" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C103">
+      <c r="C123" s="1">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D123" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A104" t="s">
+    <row r="124" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B124" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C104">
+      <c r="C124" s="1">
         <v>14.59404</v>
       </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A105" t="s">
+      <c r="D124" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B125" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C105">
+      <c r="C125" s="1">
         <f>31.5/12</f>
         <v>2.625</v>
       </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A106" t="s">
+      <c r="D125" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B126" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C106">
+      <c r="C126" s="1">
         <v>0</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D126" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A107" t="s">
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B127" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C107">
+      <c r="C127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A108" t="s">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B128" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C108" t="e">
-        <f>C101/#REF!</f>
+      <c r="C128" s="1" t="e">
+        <f>C121/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D128" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="114" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="9" t="s">
+    <row r="129" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" s="5">
+        <f>886.65/144</f>
+        <v>6.1572916666666666</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C131" s="5">
+        <f>765.91/144</f>
+        <v>5.3188194444444443</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C132" s="5">
+        <f>645.17/144</f>
+        <v>4.480347222222222</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="5">
+        <f>334.19/144</f>
+        <v>2.3207638888888891</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" s="5">
+        <f>46.36/12</f>
+        <v>3.8633333333333333</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C135" s="5">
+        <f>39.93/12</f>
+        <v>3.3275000000000001</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="5">
+        <f>33.83/12</f>
+        <v>2.8191666666666664</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C137" s="5">
+        <f>27.27/12</f>
+        <v>2.2725</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C139" s="1">
+        <f>0.8*C108</f>
+        <v>32.800000000000004</v>
+      </c>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="11"/>
-    </row>
-    <row r="115" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A116" t="s">
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="20"/>
+    </row>
+    <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B144" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C116">
+      <c r="C144" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A117" t="s">
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B145" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C117">
+      <c r="C145" s="1">
         <v>0</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D145" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A118" t="s">
+    <row r="146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B146" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C118">
+      <c r="C146" s="1">
         <v>12</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D146" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A119" t="s">
+    <row r="147" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B147" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C119">
+      <c r="C147" s="1">
         <v>-5</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D147" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A120" t="s">
+    <row r="148" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B148" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C120">
+      <c r="C148" s="1">
         <v>3</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D148" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="125" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="9" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="11"/>
-    </row>
-    <row r="126" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A127" t="s">
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="20"/>
+    </row>
+    <row r="154" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B154" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C127">
+      <c r="C154" s="1">
         <v>0</v>
       </c>
+      <c r="D154" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A114:D114"/>
+  <mergeCells count="10">
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A143:D143"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A105:D105"/>
     <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A72:D72"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/drag_buildup/derivatives/DragBuildUp.xlsx
+++ b/drag_buildup/derivatives/DragBuildUp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonc/Documents/GitHub/433_design_problem/drag_buildup/derivatives/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravo_4e3\OneDrive\Documents\GitHub\443_design_problem\drag_buildup\derivatives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0C985B-CECA-FD45-ABFE-1A1C6F3793F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD17EC1-F878-4212-B57F-B40EFABEB8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34480" windowHeight="21580" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Equations" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="225">
   <si>
     <t>S</t>
   </si>
@@ -705,6 +705,12 @@
   </si>
   <si>
     <t>STe</t>
+  </si>
+  <si>
+    <t>actual incidence angle of corsair</t>
+  </si>
+  <si>
+    <t>&lt;-- Previous method</t>
   </si>
 </sst>
 </file>
@@ -1303,23 +1309,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5E94DD-475C-4C1A-B69B-A897EE12FF00}">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L148" sqref="L148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.17578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.64453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1333,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
     </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +1417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1419,13 +1425,13 @@
         <v>42</v>
       </c>
       <c r="C9" s="1">
-        <v>35.35</v>
+        <v>39.6</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
@@ -1437,7 +1443,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>152</v>
       </c>
@@ -1451,25 +1457,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="18" t="s">
         <v>53</v>
       </c>
@@ -1477,7 +1483,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1573,13 +1579,13 @@
       </c>
       <c r="C22" s="5">
         <f>((C9)^2)/C4</f>
-        <v>5.5786718750000004</v>
+        <v>7.0007142857142863</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1588,13 +1594,13 @@
       </c>
       <c r="C23" s="5">
         <f>C22</f>
-        <v>5.5786718750000004</v>
+        <v>7.0007142857142863</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>117</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>122</v>
       </c>
@@ -1755,7 +1761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>123</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>124</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>130</v>
       </c>
@@ -1797,7 +1803,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>132</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>142</v>
       </c>
@@ -1823,7 +1829,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>146</v>
       </c>
@@ -1838,19 +1844,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="18" t="s">
         <v>64</v>
       </c>
@@ -1858,7 +1864,7 @@
       <c r="C43" s="19"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
         <v>30</v>
@@ -1939,7 +1945,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>31</v>
@@ -1950,7 +1956,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>32</v>
@@ -1961,7 +1967,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
@@ -1975,7 +1981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>167</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="86" x14ac:dyDescent="0.5">
       <c r="A59" s="7" t="s">
         <v>173</v>
       </c>
@@ -2072,7 +2078,7 @@
       </c>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>175</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
@@ -2095,14 +2101,21 @@
         <v>178</v>
       </c>
       <c r="C61" s="1">
-        <f>SQRT(4*C60/3.14159265)</f>
-        <v>4.9639956196366919</v>
+        <f>C60/PI()</f>
+        <v>6.1603131209038811</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="F61" s="1">
+        <f>SQRT(4*F60/3.14159265)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -2117,7 +2130,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>182</v>
       </c>
@@ -2126,13 +2139,13 @@
       </c>
       <c r="C63" s="1">
         <f>C44/C61</f>
-        <v>4.0954911240409038</v>
+        <v>3.3001569240066564</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="18" t="s">
         <v>185</v>
       </c>
@@ -2140,7 +2153,7 @@
       <c r="C64" s="19"/>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" s="10" t="s">
         <v>5</v>
       </c>
@@ -2154,7 +2167,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="43" x14ac:dyDescent="0.5">
       <c r="A66" s="1" t="s">
         <v>186</v>
       </c>
@@ -2163,19 +2176,19 @@
       </c>
       <c r="C66" s="1">
         <f>C61/C9</f>
-        <v>0.140424204233004</v>
+        <v>0.15556346264908791</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="24" t="s">
         <v>188</v>
       </c>
@@ -2183,7 +2196,7 @@
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
     </row>
-    <row r="69" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2210,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A70" s="1" t="s">
         <v>189</v>
       </c>
@@ -2206,13 +2219,13 @@
       </c>
       <c r="C70" s="1">
         <f>2*C124/C9</f>
-        <v>0.82568826025459685</v>
+        <v>0.73707272727272721</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A71" s="1" t="s">
         <v>190</v>
       </c>
@@ -2221,13 +2234,13 @@
       </c>
       <c r="C71" s="1">
         <f>ABS(2*C125/C9)</f>
-        <v>0.14851485148514851</v>
+        <v>0.13257575757575757</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="24" t="s">
         <v>193</v>
       </c>
@@ -2235,37 +2248,37 @@
       <c r="C72" s="25"/>
       <c r="D72" s="26"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="24" t="s">
         <v>85</v>
       </c>
@@ -2273,7 +2286,7 @@
       <c r="C78" s="25"/>
       <c r="D78" s="26"/>
     </row>
-    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
@@ -2288,7 +2301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
@@ -2303,7 +2316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -2317,7 +2330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A82" s="1" t="s">
         <v>43</v>
       </c>
@@ -2332,7 +2345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="39" x14ac:dyDescent="0.5">
       <c r="A83" s="8" t="s">
         <v>45</v>
       </c>
@@ -2347,7 +2360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A84" s="9" t="s">
         <v>65</v>
       </c>
@@ -2361,7 +2374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -2376,7 +2389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A86" s="1" t="s">
         <v>15</v>
       </c>
@@ -2391,7 +2404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A87" s="1" t="s">
         <v>62</v>
       </c>
@@ -2405,7 +2418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A88" s="1" t="s">
         <v>63</v>
       </c>
@@ -2419,7 +2432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A89" s="1" t="s">
         <v>41</v>
       </c>
@@ -2434,7 +2447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A90" s="1" t="s">
         <v>68</v>
       </c>
@@ -2448,7 +2461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2462,7 +2475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -2476,7 +2489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
@@ -2490,7 +2503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A94" s="1" t="s">
         <v>113</v>
       </c>
@@ -2505,7 +2518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A95" s="1" t="s">
         <v>115</v>
       </c>
@@ -2520,7 +2533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A96" s="1" t="s">
         <v>116</v>
       </c>
@@ -2535,7 +2548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
@@ -2550,7 +2563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A98" s="1" t="s">
         <v>121</v>
       </c>
@@ -2565,7 +2578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A99" s="1" t="s">
         <v>122</v>
       </c>
@@ -2580,7 +2593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A100" s="1" t="s">
         <v>123</v>
       </c>
@@ -2595,7 +2608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A101" s="1" t="s">
         <v>124</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A102" s="1" t="s">
         <v>130</v>
       </c>
@@ -2624,7 +2637,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A103" s="1" t="s">
         <v>131</v>
       </c>
@@ -2636,7 +2649,7 @@
       </c>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>219</v>
       </c>
@@ -2649,7 +2662,7 @@
       </c>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="18" t="s">
         <v>86</v>
       </c>
@@ -2657,7 +2670,7 @@
       <c r="C105" s="19"/>
       <c r="D105" s="20"/>
     </row>
-    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
@@ -2672,7 +2685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -2687,7 +2700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A108" s="9" t="s">
         <v>155</v>
       </c>
@@ -2701,7 +2714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A109" s="1" t="s">
         <v>43</v>
       </c>
@@ -2713,7 +2726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A110" s="1" t="s">
         <v>151</v>
       </c>
@@ -2728,7 +2741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A111" s="1" t="s">
         <v>157</v>
       </c>
@@ -2742,7 +2755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="39" x14ac:dyDescent="0.5">
       <c r="A112" s="8" t="s">
         <v>45</v>
       </c>
@@ -2754,7 +2767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A113" s="1" t="s">
         <v>44</v>
       </c>
@@ -2768,7 +2781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A114" s="1" t="s">
         <v>160</v>
       </c>
@@ -2782,7 +2795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A115" s="7" t="s">
         <v>164</v>
       </c>
@@ -2796,7 +2809,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A116" s="1" t="s">
         <v>162</v>
       </c>
@@ -2806,7 +2819,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -2814,7 +2827,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A118" s="1" t="s">
         <v>15</v>
       </c>
@@ -2822,7 +2835,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A119" s="1" t="s">
         <v>62</v>
       </c>
@@ -2837,7 +2850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A120" s="1" t="s">
         <v>63</v>
       </c>
@@ -2852,7 +2865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A121" s="1" t="s">
         <v>41</v>
       </c>
@@ -2867,7 +2880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A122" s="1" t="s">
         <v>82</v>
       </c>
@@ -2881,7 +2894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A123" s="1" t="s">
         <v>83</v>
       </c>
@@ -2895,7 +2908,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="43" x14ac:dyDescent="0.5">
       <c r="A124" s="1" t="s">
         <v>97</v>
       </c>
@@ -2909,7 +2922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="43" x14ac:dyDescent="0.5">
       <c r="A125" s="1" t="s">
         <v>89</v>
       </c>
@@ -2924,7 +2937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A126" s="1" t="s">
         <v>100</v>
       </c>
@@ -2938,7 +2951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A127" s="1" t="s">
         <v>101</v>
       </c>
@@ -2950,7 +2963,7 @@
       </c>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A128" s="1" t="s">
         <v>151</v>
       </c>
@@ -2965,7 +2978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="100.35" x14ac:dyDescent="0.5">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -2979,7 +2992,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A130" s="1" t="s">
         <v>113</v>
       </c>
@@ -2994,7 +3007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A131" s="1" t="s">
         <v>115</v>
       </c>
@@ -3009,7 +3022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A132" s="1" t="s">
         <v>116</v>
       </c>
@@ -3024,7 +3037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A133" s="1" t="s">
         <v>117</v>
       </c>
@@ -3039,7 +3052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A134" s="1" t="s">
         <v>121</v>
       </c>
@@ -3054,7 +3067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A135" s="1" t="s">
         <v>122</v>
       </c>
@@ -3069,7 +3082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A136" s="1" t="s">
         <v>123</v>
       </c>
@@ -3084,7 +3097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A137" s="1" t="s">
         <v>124</v>
       </c>
@@ -3099,7 +3112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A138" s="1" t="s">
         <v>130</v>
       </c>
@@ -3111,7 +3124,7 @@
       </c>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A139" s="1" t="s">
         <v>220</v>
       </c>
@@ -3124,25 +3137,25 @@
       </c>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="18" t="s">
         <v>102</v>
       </c>
@@ -3150,7 +3163,7 @@
       <c r="C143" s="19"/>
       <c r="D143" s="20"/>
     </row>
-    <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A144" s="1" t="s">
         <v>100</v>
       </c>
@@ -3162,7 +3175,7 @@
       </c>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A145" s="1" t="s">
         <v>135</v>
       </c>
@@ -3170,13 +3183,13 @@
         <v>133</v>
       </c>
       <c r="C145" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A146" s="1" t="s">
         <v>136</v>
       </c>
@@ -3190,7 +3203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="43" x14ac:dyDescent="0.5">
       <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
@@ -3204,7 +3217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="43" x14ac:dyDescent="0.5">
       <c r="A148" s="1" t="s">
         <v>139</v>
       </c>
@@ -3212,37 +3225,40 @@
         <v>138</v>
       </c>
       <c r="C148" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F148" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="18" t="s">
         <v>149</v>
       </c>
@@ -3250,7 +3266,7 @@
       <c r="C153" s="19"/>
       <c r="D153" s="20"/>
     </row>
-    <row r="154" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A154" s="1" t="s">
         <v>150</v>
       </c>

--- a/drag_buildup/derivatives/DragBuildUp.xlsx
+++ b/drag_buildup/derivatives/DragBuildUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravo_4e3\OneDrive\Documents\GitHub\443_design_problem\drag_buildup\derivatives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD17EC1-F878-4212-B57F-B40EFABEB8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85485FE-51FF-4866-9EEB-37C0977E1BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
   </bookViews>
@@ -1312,8 +1312,8 @@
   <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L148" sqref="L148"/>
+      <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1369,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1411,7 +1411,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>

--- a/drag_buildup/derivatives/DragBuildUp.xlsx
+++ b/drag_buildup/derivatives/DragBuildUp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravo_4e3\OneDrive\Documents\GitHub\443_design_problem\drag_buildup\derivatives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonc/Documents/GitHub/433_design_problem/drag_buildup/derivatives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85485FE-51FF-4866-9EEB-37C0977E1BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F87177-C805-CE4E-83F5-15872100B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
+    <workbookView xWindow="57820" yWindow="500" windowWidth="10980" windowHeight="28300" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Equations" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="226">
   <si>
     <t>S</t>
   </si>
@@ -539,9 +539,6 @@
     <t>S_CAB</t>
   </si>
   <si>
-    <t>wetted area of A,B,C</t>
-  </si>
-  <si>
     <t>Lambda_f</t>
   </si>
   <si>
@@ -711,6 +708,12 @@
   </si>
   <si>
     <t>&lt;-- Previous method</t>
+  </si>
+  <si>
+    <t>area of cabin/cockpit</t>
+  </si>
+  <si>
+    <t>from online estimates (AI) of A29</t>
   </si>
 </sst>
 </file>
@@ -1311,21 +1314,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5E94DD-475C-4C1A-B69B-A897EE12FF00}">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.17578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1336,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
     </row>
-    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1344,10 +1347,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
@@ -1443,7 +1446,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>152</v>
       </c>
@@ -1457,25 +1460,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>53</v>
       </c>
@@ -1483,7 +1486,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>117</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>122</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>123</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>124</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>130</v>
       </c>
@@ -1803,7 +1806,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>132</v>
       </c>
@@ -1814,10 +1817,10 @@
         <v>147</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>142</v>
       </c>
@@ -1829,7 +1832,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>146</v>
       </c>
@@ -1844,19 +1847,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>64</v>
       </c>
@@ -1864,7 +1867,7 @@
       <c r="C43" s="19"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
         <v>30</v>
@@ -1945,7 +1948,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>31</v>
@@ -1956,7 +1959,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>32</v>
@@ -1967,7 +1970,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
@@ -2023,27 +2026,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C56" s="1">
-        <f>C55+C54+C92</f>
-        <v>182.04999999999998</v>
+        <v>65</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="E56" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C57" s="1">
         <v>6.31</v>
@@ -2052,12 +2057,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -2066,39 +2071,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="86" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C59" s="7">
         <v>0.8</v>
       </c>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C60" s="1">
         <f>2786.86 / 144</f>
         <v>19.353194444444444</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="57.35" x14ac:dyDescent="0.5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C61" s="1">
         <f>C60/PI()</f>
@@ -2112,48 +2117,48 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="71.7" x14ac:dyDescent="0.5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C62" s="1">
         <f>3158.78/144</f>
         <v>21.935972222222222</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C63" s="1">
         <f>C44/C61</f>
         <v>3.3001569240066564</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="18" t="s">
-        <v>185</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>5</v>
       </c>
@@ -2164,39 +2169,39 @@
         <v>29</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="43" x14ac:dyDescent="0.5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C66" s="1">
         <f>C61/C9</f>
         <v>0.15556346264908791</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
     </row>
-    <row r="69" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
@@ -2207,78 +2212,78 @@
         <v>29</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" s="1">
         <f>2*C124/C9</f>
         <v>0.73707272727272721</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C71" s="1">
         <f>ABS(2*C125/C9)</f>
         <v>0.13257575757575757</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="26"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>85</v>
       </c>
@@ -2286,7 +2291,7 @@
       <c r="C78" s="25"/>
       <c r="D78" s="26"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
@@ -2301,7 +2306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
@@ -2316,7 +2321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -2330,7 +2335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>43</v>
       </c>
@@ -2345,7 +2350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="39" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>45</v>
       </c>
@@ -2360,7 +2365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>65</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -2389,7 +2394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>15</v>
       </c>
@@ -2404,7 +2409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>62</v>
       </c>
@@ -2418,7 +2423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>63</v>
       </c>
@@ -2432,7 +2437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>41</v>
       </c>
@@ -2447,7 +2452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>68</v>
       </c>
@@ -2461,7 +2466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2475,7 +2480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -2489,12 +2494,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -2503,12 +2508,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C94" s="17">
         <f>906.56/144</f>
@@ -2518,12 +2523,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C95" s="17">
         <f>778.59/144</f>
@@ -2533,12 +2538,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C96" s="17">
         <f>650.61/144</f>
@@ -2548,12 +2553,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C97" s="17">
         <f>522.63/144</f>
@@ -2563,12 +2568,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C98" s="17">
         <f>61.11/12</f>
@@ -2578,12 +2583,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C99" s="17">
         <f>52.76/12</f>
@@ -2593,12 +2598,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C100" s="17">
         <f>44.01/12</f>
@@ -2608,12 +2613,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C101" s="17">
         <f>35.18/12</f>
@@ -2623,38 +2628,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="B104" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C104" s="1">
         <f>0.8*C81</f>
@@ -2662,7 +2667,7 @@
       </c>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>86</v>
       </c>
@@ -2670,7 +2675,7 @@
       <c r="C105" s="19"/>
       <c r="D105" s="20"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
@@ -2685,7 +2690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -2700,7 +2705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>155</v>
       </c>
@@ -2714,7 +2719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>43</v>
       </c>
@@ -2726,7 +2731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>151</v>
       </c>
@@ -2741,7 +2746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>157</v>
       </c>
@@ -2755,7 +2760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="39" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>45</v>
       </c>
@@ -2767,7 +2772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>44</v>
       </c>
@@ -2781,7 +2786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>160</v>
       </c>
@@ -2795,7 +2800,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>164</v>
       </c>
@@ -2809,7 +2814,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>162</v>
       </c>
@@ -2819,7 +2824,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -2827,7 +2832,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>15</v>
       </c>
@@ -2835,7 +2840,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>62</v>
       </c>
@@ -2850,7 +2855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>63</v>
       </c>
@@ -2865,7 +2870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>41</v>
       </c>
@@ -2880,7 +2885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>82</v>
       </c>
@@ -2894,7 +2899,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>83</v>
       </c>
@@ -2908,7 +2913,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="43" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>97</v>
       </c>
@@ -2922,7 +2927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="43" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>89</v>
       </c>
@@ -2937,7 +2942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>100</v>
       </c>
@@ -2951,7 +2956,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>101</v>
       </c>
@@ -2963,7 +2968,7 @@
       </c>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>151</v>
       </c>
@@ -2978,26 +2983,26 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="100.35" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="D129" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C130" s="5">
         <f>886.65/144</f>
@@ -3007,12 +3012,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C131" s="5">
         <f>765.91/144</f>
@@ -3022,12 +3027,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C132" s="5">
         <f>645.17/144</f>
@@ -3037,12 +3042,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C133" s="5">
         <f>334.19/144</f>
@@ -3052,12 +3057,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C134" s="5">
         <f>46.36/12</f>
@@ -3067,12 +3072,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C135" s="5">
         <f>39.93/12</f>
@@ -3082,12 +3087,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C136" s="5">
         <f>33.83/12</f>
@@ -3097,12 +3102,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C137" s="5">
         <f>27.27/12</f>
@@ -3112,7 +3117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>130</v>
       </c>
@@ -3124,12 +3129,12 @@
       </c>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C139" s="1">
         <f>0.8*C108</f>
@@ -3137,25 +3142,25 @@
       </c>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
         <v>102</v>
       </c>
@@ -3163,7 +3168,7 @@
       <c r="C143" s="19"/>
       <c r="D143" s="20"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>100</v>
       </c>
@@ -3175,7 +3180,7 @@
       </c>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>135</v>
       </c>
@@ -3189,7 +3194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>136</v>
       </c>
@@ -3203,7 +3208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="43" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
@@ -3217,7 +3222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="43" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>139</v>
       </c>
@@ -3231,34 +3236,34 @@
         <v>28</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
         <v>149</v>
       </c>
@@ -3266,7 +3271,7 @@
       <c r="C153" s="19"/>
       <c r="D153" s="20"/>
     </row>
-    <row r="154" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>150</v>
       </c>

--- a/drag_buildup/derivatives/DragBuildUp.xlsx
+++ b/drag_buildup/derivatives/DragBuildUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravo_4e3\OneDrive\Documents\GitHub\443_design_problem\drag_buildup\derivatives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85485FE-51FF-4866-9EEB-37C0977E1BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E2246D-C694-4B87-86DC-03370F641380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="229">
   <si>
     <t>S</t>
   </si>
@@ -711,6 +711,18 @@
   </si>
   <si>
     <t>&lt;-- Previous method</t>
+  </si>
+  <si>
+    <t>Drag Build Up</t>
+  </si>
+  <si>
+    <t>Drag const - Drop tank (n)</t>
+  </si>
+  <si>
+    <t>drag_tankWpylon</t>
+  </si>
+  <si>
+    <t>dragCONST_pylon</t>
   </si>
 </sst>
 </file>
@@ -1309,11 +1321,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5E94DD-475C-4C1A-B69B-A897EE12FF00}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <pane ySplit="3" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3240,47 +3252,61 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+    <row r="151" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="20"/>
+    </row>
+    <row r="152" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A152" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.06</v>
+      </c>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="18" t="s">
+    <row r="153" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B153" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="20"/>
-    </row>
-    <row r="154" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A154" s="1" t="s">
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="20"/>
+    </row>
+    <row r="172" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A172" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C172" s="1">
         <v>0</v>
       </c>
-      <c r="D154" s="1"/>
+      <c r="D172" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A153:D153"/>
+  <mergeCells count="11">
+    <mergeCell ref="A171:D171"/>
     <mergeCell ref="A143:D143"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A15:D15"/>
@@ -3290,6 +3316,7 @@
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A151:D151"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
